--- a/£FDEV.xlsx
+++ b/£FDEV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E560A56-6E0B-420A-A7E7-B43F6AB656CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105023F-1B19-4DBD-AB1C-6B752E6FB2FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -317,15 +317,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,32 +338,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DB7C9A-6CE5-4A25-A0B2-39FC73A17F0D}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -779,508 +779,517 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>15.890499999999999</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="C6" s="17">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="15">
         <v>39.42</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="F7" s="29">
+      <c r="D7" s="6"/>
+      <c r="F7" s="18">
         <v>44803</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>626.40350999999998</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+        <v>194.14349999999999</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="15">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>626.40350999999998</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+        <v>194.14349999999999</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="11"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="D16" s="27"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="D17" s="27"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="D18" s="27"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="D19" s="31"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="D23" s="27"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1994</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="16"/>
+      <c r="D31" s="29"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:N5"/>
@@ -1297,15 +1306,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{EC19301A-79B2-4A09-9094-D02EB01295DB}"/>
@@ -1320,16 +1320,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3268C-095B-4E18-9CFC-2D41B6C124BF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£FDEV.xlsx
+++ b/£FDEV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105023F-1B19-4DBD-AB1C-6B752E6FB2FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266100A6-B1BE-4346-A39C-ED0AB816464C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>£FDEV</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Ratios</t>
-  </si>
-  <si>
     <t>Key Events</t>
   </si>
   <si>
@@ -140,6 +137,180 @@
   </si>
   <si>
     <t>Studios</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>Emply.</t>
+  </si>
+  <si>
+    <t>Valuation Metrics</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>H118</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>H121</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>H218</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>H221</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Publishing Revenue</t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Net Finance Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue H/H</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>FDEV cite poor sales performance of F1 Manager 22 as reason for poor revenue performance compared to previous year</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Planet Coaster</t>
+  </si>
+  <si>
+    <t>Planet Zoo(?)</t>
   </si>
 </sst>
 </file>
@@ -149,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +330,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -192,8 +356,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +509,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -341,20 +539,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,10 +555,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +569,66 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,6 +709,61 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B9D600-7CEA-40FB-9410-45FB80B3DF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="0"/>
+          <a:ext cx="0" cy="11563350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -756,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DB7C9A-6CE5-4A25-A0B2-39FC73A17F0D}">
-  <dimension ref="A2:N41"/>
+  <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -767,522 +1077,673 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="F5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2.0693000000000001</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="T6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <f>+'Financial Model'!W18</f>
+        <v>39.025745999999998</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="T7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <f>C6*C7</f>
+        <v>80.755976197799995</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="F8" s="17">
+        <v>45170</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14">
+        <f>C9-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15">
+        <f>C8-C11</f>
+        <v>80.755976197799995</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="F17" s="17">
+        <v>44803</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1994</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2013</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="23">
+        <f>+'Financial Model'!W30</f>
+        <v>915</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="55">
+        <f>+'Financial Model'!W3</f>
+        <v>45182</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17">
-        <v>4.9249999999999998</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15">
-        <v>39.42</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="18">
-        <v>44803</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
-        <f>C6*C7</f>
-        <v>194.14349999999999</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15">
-        <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16">
-        <f>C8-C11</f>
-        <v>194.14349999999999</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="26">
-        <v>1994</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="8"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="8"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="7"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="7"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="17">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
@@ -1290,25 +1751,10 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F5:N5"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{EC19301A-79B2-4A09-9094-D02EB01295DB}"/>
+    <hyperlink ref="C34:D34" r:id="rId1" display="Link" xr:uid="{BC30B779-27F5-4AFF-833E-D263849D32F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
@@ -1318,21 +1764,1044 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3268C-095B-4E18-9CFC-2D41B6C124BF}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="34"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="34"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="34"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="34"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="34"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="34"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="L2" s="56">
+        <f>+V2</f>
+        <v>44712</v>
+      </c>
+      <c r="N2" s="56">
+        <f>W2</f>
+        <v>45077</v>
+      </c>
+      <c r="R2" s="40">
+        <v>43251</v>
+      </c>
+      <c r="S2" s="40">
+        <v>43616</v>
+      </c>
+      <c r="T2" s="40">
+        <v>43982</v>
+      </c>
+      <c r="U2" s="40">
+        <v>44347</v>
+      </c>
+      <c r="V2" s="40">
+        <v>44712</v>
+      </c>
+      <c r="W2" s="40">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="57">
+        <f>W3</f>
+        <v>45182</v>
+      </c>
+      <c r="W3" s="38">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="R4" s="44">
+        <v>32.643999999999998</v>
+      </c>
+      <c r="S4" s="44">
+        <v>89.475999999999999</v>
+      </c>
+      <c r="T4" s="44">
+        <v>75.924000000000007</v>
+      </c>
+      <c r="U4" s="44">
+        <v>90.471000000000004</v>
+      </c>
+      <c r="V4" s="44">
+        <v>113.55500000000001</v>
+      </c>
+      <c r="W4" s="44">
+        <v>104.084</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="R5" s="44">
+        <v>1.548</v>
+      </c>
+      <c r="S5" s="44">
+        <v>0.193</v>
+      </c>
+      <c r="T5" s="44">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U5" s="44">
+        <v>0.217</v>
+      </c>
+      <c r="V5" s="44">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="W5" s="44">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6" si="0">+C4+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" ref="D6" si="1">+D4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6" si="2">+E4+E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" ref="F6" si="3">+F4+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6" si="4">+G4+G5</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" ref="H6" si="5">+H4+H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6" si="6">+I4+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" ref="J6" si="7">+J4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6" si="8">+K4+K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="39">
+        <f t="shared" ref="L6" si="9">+L4+L5</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6" si="10">+M4+M5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" ref="N6" si="11">+N4+N5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <f t="shared" ref="R6:T6" si="12">+R4+R5</f>
+        <v>34.192</v>
+      </c>
+      <c r="S6" s="45">
+        <f t="shared" si="12"/>
+        <v>89.668999999999997</v>
+      </c>
+      <c r="T6" s="45">
+        <f t="shared" si="12"/>
+        <v>76.089000000000013</v>
+      </c>
+      <c r="U6" s="45">
+        <f>+U4+U5</f>
+        <v>90.688000000000002</v>
+      </c>
+      <c r="V6" s="45">
+        <f>+V4+V5</f>
+        <v>114.03200000000001</v>
+      </c>
+      <c r="W6" s="45">
+        <f>+W4+W5</f>
+        <v>104.575</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="46">
+        <v>10.092000000000001</v>
+      </c>
+      <c r="S7" s="46">
+        <v>35.021000000000001</v>
+      </c>
+      <c r="T7" s="46">
+        <v>24.532</v>
+      </c>
+      <c r="U7" s="46">
+        <v>27.538</v>
+      </c>
+      <c r="V7" s="46">
+        <v>40.42</v>
+      </c>
+      <c r="W7" s="46">
+        <v>37.229999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8" si="13">C6-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="39">
+        <f t="shared" ref="D8" si="14">D6-D7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8" si="15">E6-E7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" ref="F8" si="16">F6-F7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="17">G6-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" ref="H8" si="18">H6-H7</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8" si="19">I6-I7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" ref="J8" si="20">J6-J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8" si="21">K6-K7</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <f t="shared" ref="L8" si="22">L6-L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8" si="23">M6-M7</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <f t="shared" ref="N8" si="24">N6-N7</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="45">
+        <f t="shared" ref="R8:U8" si="25">R6-R7</f>
+        <v>24.1</v>
+      </c>
+      <c r="S8" s="45">
+        <f t="shared" si="25"/>
+        <v>54.647999999999996</v>
+      </c>
+      <c r="T8" s="45">
+        <f t="shared" si="25"/>
+        <v>51.557000000000016</v>
+      </c>
+      <c r="U8" s="45">
+        <f t="shared" si="25"/>
+        <v>63.150000000000006</v>
+      </c>
+      <c r="V8" s="45">
+        <f>V6-V7</f>
+        <v>73.612000000000009</v>
+      </c>
+      <c r="W8" s="45">
+        <f>W6-W7</f>
+        <v>67.344999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="46">
+        <v>8.5</v>
+      </c>
+      <c r="S9" s="46">
+        <v>14.891</v>
+      </c>
+      <c r="T9" s="46">
+        <v>16.013999999999999</v>
+      </c>
+      <c r="U9" s="46">
+        <v>22.024999999999999</v>
+      </c>
+      <c r="V9" s="46">
+        <v>46.179000000000002</v>
+      </c>
+      <c r="W9" s="46">
+        <v>67.856999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="46">
+        <v>6.0759999999999996</v>
+      </c>
+      <c r="S10" s="46">
+        <v>7.8520000000000003</v>
+      </c>
+      <c r="T10" s="46">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="U10" s="46">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="V10" s="46">
+        <v>12.339</v>
+      </c>
+      <c r="W10" s="46">
+        <v>12.012</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="46">
+        <v>6.7240000000000002</v>
+      </c>
+      <c r="S11" s="46">
+        <v>12.536</v>
+      </c>
+      <c r="T11" s="46">
+        <v>13.172000000000001</v>
+      </c>
+      <c r="U11" s="46">
+        <v>13.94</v>
+      </c>
+      <c r="V11" s="46">
+        <v>13.558</v>
+      </c>
+      <c r="W11" s="46">
+        <v>14.055999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12" si="26">C8-C9-C10-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" ref="D12" si="27">D8-D9-D10-D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12" si="28">E8-E9-E10-E11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" ref="F12" si="29">F8-F9-F10-F11</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12" si="30">G8-G9-G10-G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" ref="H12" si="31">H8-H9-H10-H11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12" si="32">I8-I9-I10-I11</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" ref="J12" si="33">J8-J9-J10-J11</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="34">K8-K9-K10-K11</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="39">
+        <f t="shared" ref="L12" si="35">L8-L9-L10-L11</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12" si="36">M8-M9-M10-M11</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" ref="N12" si="37">N8-N9-N10-N11</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="45">
+        <f t="shared" ref="R12:U12" si="38">R8-R9-R10-R11</f>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="S12" s="45">
+        <f t="shared" si="38"/>
+        <v>19.369</v>
+      </c>
+      <c r="T12" s="45">
+        <f t="shared" si="38"/>
+        <v>16.62400000000002</v>
+      </c>
+      <c r="U12" s="45">
+        <f t="shared" si="38"/>
+        <v>19.916000000000011</v>
+      </c>
+      <c r="V12" s="45">
+        <f>V8-V9-V10-V11</f>
+        <v>1.5360000000000067</v>
+      </c>
+      <c r="W12" s="45">
+        <f>W8-W9-W10-W11</f>
+        <v>-26.58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="46">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S13" s="46">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="T13" s="46">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="U13" s="46">
+        <v>-0.73099999999999998</v>
+      </c>
+      <c r="V13" s="46">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="W13" s="46">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14" si="39">C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" ref="D14" si="40">D12+D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14" si="41">E12+E13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" ref="F14" si="42">F12+F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="43">G12+G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" ref="H14" si="44">H12+H13</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14" si="45">I12+I13</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
+        <f t="shared" ref="J14" si="46">J12+J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ref="K14" si="47">K12+K13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" ref="L14" si="48">L12+L13</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14" si="49">M12+M13</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <f t="shared" ref="N14" si="50">N12+N13</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <f t="shared" ref="R14:U14" si="51">R12+R13</f>
+        <v>2.8810000000000007</v>
+      </c>
+      <c r="S14" s="46">
+        <f t="shared" si="51"/>
+        <v>19.658000000000001</v>
+      </c>
+      <c r="T14" s="46">
+        <f t="shared" si="51"/>
+        <v>16.22300000000002</v>
+      </c>
+      <c r="U14" s="46">
+        <f t="shared" si="51"/>
+        <v>19.185000000000009</v>
+      </c>
+      <c r="V14" s="46">
+        <f>V12+V13</f>
+        <v>2.1280000000000068</v>
+      </c>
+      <c r="W14" s="46">
+        <f>W12+W13</f>
+        <v>-26.508999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="46">
+        <v>-0.71299999999999997</v>
+      </c>
+      <c r="S15" s="46">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="T15" s="46">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="U15" s="46">
+        <v>-2.3730000000000002</v>
+      </c>
+      <c r="V15" s="46">
+        <v>-8.6839999999999993</v>
+      </c>
+      <c r="W15" s="46">
+        <v>-5.6040000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16" si="52">C14-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f t="shared" ref="D16" si="53">D14-D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16" si="54">E14-E15</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" ref="F16" si="55">F14-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16" si="56">G14-G15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16" si="57">H14-H15</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16" si="58">I14-I15</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" ref="J16" si="59">J14-J15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16" si="60">K14-K15</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" ref="L16" si="61">L14-L15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ref="M16" si="62">M14-M15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" ref="N16" si="63">N14-N15</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="45">
+        <f t="shared" ref="R16:U16" si="64">R14-R15</f>
+        <v>3.5940000000000007</v>
+      </c>
+      <c r="S16" s="45">
+        <f t="shared" si="64"/>
+        <v>17.41</v>
+      </c>
+      <c r="T16" s="45">
+        <f t="shared" si="64"/>
+        <v>15.89400000000002</v>
+      </c>
+      <c r="U16" s="45">
+        <f t="shared" si="64"/>
+        <v>21.55800000000001</v>
+      </c>
+      <c r="V16" s="45">
+        <f>V14-V15</f>
+        <v>10.812000000000006</v>
+      </c>
+      <c r="W16" s="45">
+        <f>W14-W15</f>
+        <v>-20.904999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="R17" s="52">
+        <f t="shared" ref="R17" si="65">R16/R18</f>
+        <v>9.5789834225217391E-2</v>
+      </c>
+      <c r="S17" s="52">
+        <f t="shared" ref="S17" si="66">S16/S18</f>
+        <v>0.45412906483661436</v>
+      </c>
+      <c r="T17" s="52">
+        <f t="shared" ref="T17:U17" si="67">T16/T18</f>
+        <v>0.41300581128851421</v>
+      </c>
+      <c r="U17" s="52">
+        <f t="shared" si="67"/>
+        <v>0.55404877088965387</v>
+      </c>
+      <c r="V17" s="52">
+        <f>V16/V18</f>
+        <v>0.2760065245981882</v>
+      </c>
+      <c r="W17" s="52">
+        <f>W16/W18</f>
+        <v>-0.53567201508460593</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="R18" s="46">
+        <v>37.519638999999998</v>
+      </c>
+      <c r="S18" s="46">
+        <v>38.337119000000001</v>
+      </c>
+      <c r="T18" s="46">
+        <v>38.483719999999998</v>
+      </c>
+      <c r="U18" s="46">
+        <v>38.909931999999998</v>
+      </c>
+      <c r="V18" s="46">
+        <v>39.172986999999999</v>
+      </c>
+      <c r="W18" s="46">
+        <v>39.025745999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="R20" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="47">
+        <f t="shared" ref="S20:W20" si="68">S6/R6-1</f>
+        <v>1.6225140383715488</v>
+      </c>
+      <c r="T20" s="47">
+        <f t="shared" si="68"/>
+        <v>-0.151445873155717</v>
+      </c>
+      <c r="U20" s="47">
+        <f t="shared" si="68"/>
+        <v>0.19186741841790522</v>
+      </c>
+      <c r="V20" s="47">
+        <f t="shared" si="68"/>
+        <v>0.25741002117148915</v>
+      </c>
+      <c r="W20" s="47">
+        <f>W6/V6-1</f>
+        <v>-8.2932860951312026E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="R23" s="49">
+        <f t="shared" ref="R23:T23" si="69">R8/R6</f>
+        <v>0.70484323818437067</v>
+      </c>
+      <c r="S23" s="49">
+        <f t="shared" si="69"/>
+        <v>0.60944139000100372</v>
+      </c>
+      <c r="T23" s="49">
+        <f t="shared" ref="T23:V23" si="70">T8/T6</f>
+        <v>0.67758808763421796</v>
+      </c>
+      <c r="U23" s="49">
+        <f t="shared" si="70"/>
+        <v>0.69634350741002127</v>
+      </c>
+      <c r="V23" s="49">
+        <f t="shared" ref="V23:W23" si="71">V8/V6</f>
+        <v>0.64553809456994526</v>
+      </c>
+      <c r="W23" s="49">
+        <f>W8/W6</f>
+        <v>0.64398756873057617</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="R24" s="49">
+        <f t="shared" ref="R24:T24" si="72">R12/R6</f>
+        <v>8.1890500701918598E-2</v>
+      </c>
+      <c r="S24" s="49">
+        <f t="shared" si="72"/>
+        <v>0.21600553145457183</v>
+      </c>
+      <c r="T24" s="49">
+        <f t="shared" ref="T24:V24" si="73">T12/T6</f>
+        <v>0.21848098936771435</v>
+      </c>
+      <c r="U24" s="49">
+        <f t="shared" si="73"/>
+        <v>0.21961009174311938</v>
+      </c>
+      <c r="V24" s="49">
+        <f t="shared" ref="V24:W24" si="74">V12/V6</f>
+        <v>1.3469903185070915E-2</v>
+      </c>
+      <c r="W24" s="49">
+        <f>W12/W6</f>
+        <v>-0.25417164714319862</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="R25" s="49">
+        <f t="shared" ref="R25:T25" si="75">R16/R6</f>
+        <v>0.10511230697239123</v>
+      </c>
+      <c r="S25" s="49">
+        <f t="shared" si="75"/>
+        <v>0.19415851632113662</v>
+      </c>
+      <c r="T25" s="49">
+        <f t="shared" ref="T25:V25" si="76">T16/T6</f>
+        <v>0.20888696132161044</v>
+      </c>
+      <c r="U25" s="49">
+        <f t="shared" si="76"/>
+        <v>0.23771612561750188</v>
+      </c>
+      <c r="V25" s="49">
+        <f t="shared" ref="V25:W25" si="77">V16/V6</f>
+        <v>9.4815490388662882E-2</v>
+      </c>
+      <c r="W25" s="49">
+        <f>W16/W6</f>
+        <v>-0.19990437485058568</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="R26" s="49">
+        <f t="shared" ref="R26:T26" si="78">R15/R14</f>
+        <v>-0.24748351266921201</v>
+      </c>
+      <c r="S26" s="49">
+        <f t="shared" si="78"/>
+        <v>0.11435547868552244</v>
+      </c>
+      <c r="T26" s="49">
+        <f t="shared" ref="T26:V26" si="79">T15/T14</f>
+        <v>2.027984959625221E-2</v>
+      </c>
+      <c r="U26" s="49">
+        <f t="shared" si="79"/>
+        <v>-0.12369038311180605</v>
+      </c>
+      <c r="V26" s="49">
+        <f t="shared" ref="V26:W26" si="80">V15/V14</f>
+        <v>-4.0808270676691594</v>
+      </c>
+      <c r="W26" s="49">
+        <f>W15/W14</f>
+        <v>0.21139990192010263</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" s="1">
+        <v>377</v>
+      </c>
+      <c r="S30" s="1">
+        <v>466</v>
+      </c>
+      <c r="U30" s="1">
+        <v>634</v>
+      </c>
+      <c r="W30" s="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" r:id="rId1" xr:uid="{AD3036FD-D9A6-45A9-821F-41310EE869E0}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{AE49B9F8-13B2-4228-971E-3B4557DDC5F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/£FDEV.xlsx
+++ b/£FDEV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266100A6-B1BE-4346-A39C-ED0AB816464C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADEB1AC-B7C4-4A3C-A13D-C8353ED6A748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>£FDEV</t>
   </si>
@@ -133,9 +133,6 @@
     <t>First in new franchise, F1 Manager 2022 releases 30th August 2022</t>
   </si>
   <si>
-    <t>ROCE</t>
-  </si>
-  <si>
     <t>Studios</t>
   </si>
   <si>
@@ -311,16 +308,89 @@
   </si>
   <si>
     <t>Planet Zoo(?)</t>
+  </si>
+  <si>
+    <t>Goodwill+Intangibles</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Total NCA</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Current Taxes</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/P</t>
+  </si>
+  <si>
+    <t>Lease Liability</t>
+  </si>
+  <si>
+    <t>Deferred Income</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Other Payables</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>F1 Manager 2022 (yearly rebrand)</t>
+  </si>
+  <si>
+    <t>Employees Y/Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +452,12 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -511,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,33 +623,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,6 +677,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -726,8 +816,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -743,7 +833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14411325" y="0"/>
-          <a:ext cx="0" cy="11563350"/>
+          <a:ext cx="0" cy="14458950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1068,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DB7C9A-6CE5-4A25-A0B2-39FC73A17F0D}">
   <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C40:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1089,25 +1179,25 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="F5" s="25" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="F5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1130,7 +1220,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="10"/>
       <c r="T6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1141,7 +1231,10 @@
         <f>+'Financial Model'!W18</f>
         <v>39.025745999999998</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="str">
+        <f>+$C$33</f>
+        <v>FY23</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="18"/>
       <c r="H7" s="9"/>
@@ -1155,7 +1248,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="10"/>
       <c r="T7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1171,7 +1264,7 @@
         <v>45170</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1183,13 +1276,22 @@
       <c r="O8" s="18"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="10"/>
+      <c r="T8" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="14">
+        <f>+'Financial Model'!W64</f>
+        <v>28.311</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" ref="D9:D11" si="0">+$C$33</f>
+        <v>FY23</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1207,8 +1309,14 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="14">
+        <f>+'Financial Model'!W65</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FY23</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1228,9 +1336,12 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>28.311</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FY23</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1250,7 +1361,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>80.755976197799995</v>
+        <v>52.444976197799996</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="7"/>
@@ -1295,11 +1406,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1320,10 +1431,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="57"/>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1344,10 +1455,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="57"/>
       <c r="F17" s="17">
         <v>44803</v>
       </c>
@@ -1370,10 +1481,10 @@
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="57"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1394,10 +1505,10 @@
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="59"/>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1439,11 +1550,11 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1461,10 +1572,10 @@
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="57"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1482,10 +1593,10 @@
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="56">
         <v>1994</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="57"/>
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1501,12 +1612,12 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="23">
+        <v>36</v>
+      </c>
+      <c r="C25" s="56">
         <v>2013</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="57"/>
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1539,10 +1650,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="F27" s="7"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1560,8 +1671,8 @@
       <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="F28" s="7"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1579,8 +1690,8 @@
       <c r="B29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="F29" s="7"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1613,13 +1724,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="23">
+        <v>37</v>
+      </c>
+      <c r="C31" s="56">
         <f>+'Financial Model'!W30</f>
         <v>915</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="57"/>
       <c r="F31" s="7"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -1655,9 +1766,9 @@
         <v>19</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="55">
+        <v>44</v>
+      </c>
+      <c r="D33" s="46">
         <f>+'Financial Model'!W3</f>
         <v>45182</v>
       </c>
@@ -1678,50 +1789,67 @@
       <c r="B34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="60">
+        <f>C6/'Financial Model'!W62</f>
+        <v>0.84148858158761264</v>
+      </c>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="60">
+        <f>C8/'Financial Model'!W6</f>
+        <v>0.7722302290011952</v>
+      </c>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="C40" s="60">
+        <f>C12/'Financial Model'!W6</f>
+        <v>0.50150586849438195</v>
+      </c>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C41" s="60">
+        <f>C6/'Financial Model'!W17</f>
+        <v>-3.8629981438794552</v>
+      </c>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="60">
+        <f>C12/'Financial Model'!W16</f>
+        <v>-2.5087288303181059</v>
+      </c>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
@@ -1734,7 +1862,13 @@
       <c r="D44" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F5:Q5"/>
@@ -1751,7 +1885,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C34:D34" r:id="rId1" display="Link" xr:uid="{BC30B779-27F5-4AFF-833E-D263849D32F9}"/>
@@ -1764,13 +1897,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3268C-095B-4E18-9CFC-2D41B6C124BF}">
-  <dimension ref="B1:AG36"/>
+  <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1778,221 +1911,221 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="34"/>
+    <col min="4" max="4" width="9.140625" style="25"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="34"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="34"/>
+    <col min="8" max="8" width="9.140625" style="25"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="34"/>
+    <col min="10" max="10" width="9.140625" style="25"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="34"/>
+    <col min="12" max="12" width="9.140625" style="25"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="34"/>
+    <col min="14" max="14" width="9.140625" style="25"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="32" t="s">
+    <row r="1" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="G1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="32" t="s">
+      <c r="M1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="T1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="U1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="V1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Y1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Z1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AA1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AB1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AC1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AE1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AF1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AG1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="D2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="L2" s="56">
+    </row>
+    <row r="2" spans="2:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="47">
         <f>+V2</f>
         <v>44712</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="47">
         <f>W2</f>
         <v>45077</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="31">
         <v>43251</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="31">
         <v>43616</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="31">
         <v>43982</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="31">
         <v>44347</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="31">
         <v>44712</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="31">
         <v>45077</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="57">
+    <row r="3" spans="2:33" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="N3" s="48">
         <f>W3</f>
         <v>45182</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="29">
         <v>45182</v>
       </c>
     </row>
-    <row r="4" spans="2:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="R4" s="35">
+        <v>32.643999999999998</v>
+      </c>
+      <c r="S4" s="35">
+        <v>89.475999999999999</v>
+      </c>
+      <c r="T4" s="35">
+        <v>75.924000000000007</v>
+      </c>
+      <c r="U4" s="35">
+        <v>90.471000000000004</v>
+      </c>
+      <c r="V4" s="35">
+        <v>113.55500000000001</v>
+      </c>
+      <c r="W4" s="35">
+        <v>104.084</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="R4" s="44">
-        <v>32.643999999999998</v>
-      </c>
-      <c r="S4" s="44">
-        <v>89.475999999999999</v>
-      </c>
-      <c r="T4" s="44">
-        <v>75.924000000000007</v>
-      </c>
-      <c r="U4" s="44">
-        <v>90.471000000000004</v>
-      </c>
-      <c r="V4" s="44">
-        <v>113.55500000000001</v>
-      </c>
-      <c r="W4" s="44">
-        <v>104.084</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="R5" s="44">
+      <c r="D5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="R5" s="35">
         <v>1.548</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="35">
         <v>0.193</v>
       </c>
-      <c r="T5" s="44">
+      <c r="T5" s="35">
         <v>0.16500000000000001</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="35">
         <v>0.217</v>
       </c>
-      <c r="V5" s="44">
+      <c r="V5" s="35">
         <v>0.47699999999999998</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="35">
         <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ref="C6" si="0">+C4+C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="30">
         <f t="shared" ref="D6" si="1">+D4+D5</f>
         <v>0</v>
       </c>
@@ -2000,7 +2133,7 @@
         <f t="shared" ref="E6" si="2">+E4+E5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="30">
         <f t="shared" ref="F6" si="3">+F4+F5</f>
         <v>0</v>
       </c>
@@ -2008,7 +2141,7 @@
         <f t="shared" ref="G6" si="4">+G4+G5</f>
         <v>0</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="30">
         <f t="shared" ref="H6" si="5">+H4+H5</f>
         <v>0</v>
       </c>
@@ -2016,7 +2149,7 @@
         <f t="shared" ref="I6" si="6">+I4+I5</f>
         <v>0</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="30">
         <f t="shared" ref="J6" si="7">+J4+J5</f>
         <v>0</v>
       </c>
@@ -2024,7 +2157,7 @@
         <f t="shared" ref="K6" si="8">+K4+K5</f>
         <v>0</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="30">
         <f t="shared" ref="L6" si="9">+L4+L5</f>
         <v>0</v>
       </c>
@@ -2032,67 +2165,67 @@
         <f t="shared" ref="M6" si="10">+M4+M5</f>
         <v>0</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="30">
         <f t="shared" ref="N6" si="11">+N4+N5</f>
         <v>0</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="36">
         <f t="shared" ref="R6:T6" si="12">+R4+R5</f>
         <v>34.192</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="36">
         <f t="shared" si="12"/>
         <v>89.668999999999997</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="36">
         <f t="shared" si="12"/>
         <v>76.089000000000013</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="36">
         <f>+U4+U5</f>
         <v>90.688000000000002</v>
       </c>
-      <c r="V6" s="45">
+      <c r="V6" s="36">
         <f>+V4+V5</f>
         <v>114.03200000000001</v>
       </c>
-      <c r="W6" s="45">
+      <c r="W6" s="36">
         <f>+W4+W5</f>
         <v>104.575</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="46">
+        <v>68</v>
+      </c>
+      <c r="R7" s="37">
         <v>10.092000000000001</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7" s="37">
         <v>35.021000000000001</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="37">
         <v>24.532</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="37">
         <v>27.538</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7" s="37">
         <v>40.42</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7" s="37">
         <v>37.229999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8" si="13">C6-C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="30">
         <f t="shared" ref="D8" si="14">D6-D7</f>
         <v>0</v>
       </c>
@@ -2100,7 +2233,7 @@
         <f t="shared" ref="E8" si="15">E6-E7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="30">
         <f t="shared" ref="F8" si="16">F6-F7</f>
         <v>0</v>
       </c>
@@ -2108,7 +2241,7 @@
         <f t="shared" ref="G8" si="17">G6-G7</f>
         <v>0</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="30">
         <f t="shared" ref="H8" si="18">H6-H7</f>
         <v>0</v>
       </c>
@@ -2116,7 +2249,7 @@
         <f t="shared" ref="I8" si="19">I6-I7</f>
         <v>0</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="30">
         <f t="shared" ref="J8" si="20">J6-J7</f>
         <v>0</v>
       </c>
@@ -2124,7 +2257,7 @@
         <f t="shared" ref="K8" si="21">K6-K7</f>
         <v>0</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="30">
         <f t="shared" ref="L8" si="22">L6-L7</f>
         <v>0</v>
       </c>
@@ -2132,113 +2265,113 @@
         <f t="shared" ref="M8" si="23">M6-M7</f>
         <v>0</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="30">
         <f t="shared" ref="N8" si="24">N6-N7</f>
         <v>0</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="36">
         <f t="shared" ref="R8:U8" si="25">R6-R7</f>
         <v>24.1</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="36">
         <f t="shared" si="25"/>
         <v>54.647999999999996</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="36">
         <f t="shared" si="25"/>
         <v>51.557000000000016</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="36">
         <f t="shared" si="25"/>
         <v>63.150000000000006</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="36">
         <f>V6-V7</f>
         <v>73.612000000000009</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="36">
         <f>W6-W7</f>
         <v>67.344999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="46">
+        <v>70</v>
+      </c>
+      <c r="R9" s="37">
         <v>8.5</v>
       </c>
-      <c r="S9" s="46">
+      <c r="S9" s="37">
         <v>14.891</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="37">
         <v>16.013999999999999</v>
       </c>
-      <c r="U9" s="46">
+      <c r="U9" s="37">
         <v>22.024999999999999</v>
       </c>
-      <c r="V9" s="46">
+      <c r="V9" s="37">
         <v>46.179000000000002</v>
       </c>
-      <c r="W9" s="46">
+      <c r="W9" s="37">
         <v>67.856999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="46">
+        <v>73</v>
+      </c>
+      <c r="R10" s="37">
         <v>6.0759999999999996</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="37">
         <v>7.8520000000000003</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="37">
         <v>5.7469999999999999</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="37">
         <v>7.2690000000000001</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10" s="37">
         <v>12.339</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="37">
         <v>12.012</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="46">
+        <v>74</v>
+      </c>
+      <c r="R11" s="37">
         <v>6.7240000000000002</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="37">
         <v>12.536</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="37">
         <v>13.172000000000001</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="37">
         <v>13.94</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11" s="37">
         <v>13.558</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11" s="37">
         <v>14.055999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12" si="26">C8-C9-C10-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="30">
         <f t="shared" ref="D12" si="27">D8-D9-D10-D11</f>
         <v>0</v>
       </c>
@@ -2246,7 +2379,7 @@
         <f t="shared" ref="E12" si="28">E8-E9-E10-E11</f>
         <v>0</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="30">
         <f t="shared" ref="F12" si="29">F8-F9-F10-F11</f>
         <v>0</v>
       </c>
@@ -2254,7 +2387,7 @@
         <f t="shared" ref="G12" si="30">G8-G9-G10-G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="30">
         <f t="shared" ref="H12" si="31">H8-H9-H10-H11</f>
         <v>0</v>
       </c>
@@ -2262,7 +2395,7 @@
         <f t="shared" ref="I12" si="32">I8-I9-I10-I11</f>
         <v>0</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="30">
         <f t="shared" ref="J12" si="33">J8-J9-J10-J11</f>
         <v>0</v>
       </c>
@@ -2270,7 +2403,7 @@
         <f t="shared" ref="K12" si="34">K8-K9-K10-K11</f>
         <v>0</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="30">
         <f t="shared" ref="L12" si="35">L8-L9-L10-L11</f>
         <v>0</v>
       </c>
@@ -2278,67 +2411,67 @@
         <f t="shared" ref="M12" si="36">M8-M9-M10-M11</f>
         <v>0</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="30">
         <f t="shared" ref="N12" si="37">N8-N9-N10-N11</f>
         <v>0</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="36">
         <f t="shared" ref="R12:U12" si="38">R8-R9-R10-R11</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="36">
         <f t="shared" si="38"/>
         <v>19.369</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="36">
         <f t="shared" si="38"/>
         <v>16.62400000000002</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="36">
         <f t="shared" si="38"/>
         <v>19.916000000000011</v>
       </c>
-      <c r="V12" s="45">
+      <c r="V12" s="36">
         <f>V8-V9-V10-V11</f>
         <v>1.5360000000000067</v>
       </c>
-      <c r="W12" s="45">
+      <c r="W12" s="36">
         <f>W8-W9-W10-W11</f>
         <v>-26.58</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="46">
+        <v>76</v>
+      </c>
+      <c r="R13" s="37">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="S13" s="46">
+      <c r="S13" s="37">
         <v>0.28899999999999998</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="37">
         <v>-0.40100000000000002</v>
       </c>
-      <c r="U13" s="46">
+      <c r="U13" s="37">
         <v>-0.73099999999999998</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="37">
         <v>0.59199999999999997</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="37">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14" si="39">C12+C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <f t="shared" ref="D14" si="40">D12+D13</f>
         <v>0</v>
       </c>
@@ -2346,7 +2479,7 @@
         <f t="shared" ref="E14" si="41">E12+E13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="25">
         <f t="shared" ref="F14" si="42">F12+F13</f>
         <v>0</v>
       </c>
@@ -2354,7 +2487,7 @@
         <f t="shared" ref="G14" si="43">G12+G13</f>
         <v>0</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="25">
         <f t="shared" ref="H14" si="44">H12+H13</f>
         <v>0</v>
       </c>
@@ -2362,7 +2495,7 @@
         <f t="shared" ref="I14" si="45">I12+I13</f>
         <v>0</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="25">
         <f t="shared" ref="J14" si="46">J12+J13</f>
         <v>0</v>
       </c>
@@ -2370,7 +2503,7 @@
         <f t="shared" ref="K14" si="47">K12+K13</f>
         <v>0</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="25">
         <f t="shared" ref="L14" si="48">L12+L13</f>
         <v>0</v>
       </c>
@@ -2378,67 +2511,67 @@
         <f t="shared" ref="M14" si="49">M12+M13</f>
         <v>0</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="25">
         <f t="shared" ref="N14" si="50">N12+N13</f>
         <v>0</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="37">
         <f t="shared" ref="R14:U14" si="51">R12+R13</f>
         <v>2.8810000000000007</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14" s="37">
         <f t="shared" si="51"/>
         <v>19.658000000000001</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="37">
         <f t="shared" si="51"/>
         <v>16.22300000000002</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14" s="37">
         <f t="shared" si="51"/>
         <v>19.185000000000009</v>
       </c>
-      <c r="V14" s="46">
+      <c r="V14" s="37">
         <f>V12+V13</f>
         <v>2.1280000000000068</v>
       </c>
-      <c r="W14" s="46">
+      <c r="W14" s="37">
         <f>W12+W13</f>
         <v>-26.508999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" s="46">
+        <v>78</v>
+      </c>
+      <c r="R15" s="37">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15" s="37">
         <v>2.2480000000000002</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="37">
         <v>0.32900000000000001</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15" s="37">
         <v>-2.3730000000000002</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15" s="37">
         <v>-8.6839999999999993</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15" s="37">
         <v>-5.6040000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ref="C16" si="52">C14-C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="30">
         <f t="shared" ref="D16" si="53">D14-D15</f>
         <v>0</v>
       </c>
@@ -2446,7 +2579,7 @@
         <f t="shared" ref="E16" si="54">E14-E15</f>
         <v>0</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="30">
         <f t="shared" ref="F16" si="55">F14-F15</f>
         <v>0</v>
       </c>
@@ -2454,7 +2587,7 @@
         <f t="shared" ref="G16" si="56">G14-G15</f>
         <v>0</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="30">
         <f t="shared" ref="H16" si="57">H14-H15</f>
         <v>0</v>
       </c>
@@ -2462,7 +2595,7 @@
         <f t="shared" ref="I16" si="58">I14-I15</f>
         <v>0</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="30">
         <f t="shared" ref="J16" si="59">J14-J15</f>
         <v>0</v>
       </c>
@@ -2470,7 +2603,7 @@
         <f t="shared" ref="K16" si="60">K14-K15</f>
         <v>0</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="30">
         <f t="shared" ref="L16" si="61">L14-L15</f>
         <v>0</v>
       </c>
@@ -2478,304 +2611,304 @@
         <f t="shared" ref="M16" si="62">M14-M15</f>
         <v>0</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="30">
         <f t="shared" ref="N16" si="63">N14-N15</f>
         <v>0</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="36">
         <f t="shared" ref="R16:U16" si="64">R14-R15</f>
         <v>3.5940000000000007</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="36">
         <f t="shared" si="64"/>
         <v>17.41</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="36">
         <f t="shared" si="64"/>
         <v>15.89400000000002</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="36">
         <f t="shared" si="64"/>
         <v>21.55800000000001</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="36">
         <f>V14-V15</f>
         <v>10.812000000000006</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="36">
         <f>W14-W15</f>
         <v>-20.904999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="R17" s="52">
+    <row r="17" spans="2:23" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="R17" s="43">
         <f t="shared" ref="R17" si="65">R16/R18</f>
         <v>9.5789834225217391E-2</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="43">
         <f t="shared" ref="S17" si="66">S16/S18</f>
         <v>0.45412906483661436</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="43">
         <f t="shared" ref="T17:U17" si="67">T16/T18</f>
         <v>0.41300581128851421</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="43">
         <f t="shared" si="67"/>
         <v>0.55404877088965387</v>
       </c>
-      <c r="V17" s="52">
+      <c r="V17" s="43">
         <f>V16/V18</f>
         <v>0.2760065245981882</v>
       </c>
-      <c r="W17" s="52">
+      <c r="W17" s="43">
         <f>W16/W18</f>
         <v>-0.53567201508460593</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="R18" s="46">
+      <c r="D18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="R18" s="37">
         <v>37.519638999999998</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="37">
         <v>38.337119000000001</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="37">
         <v>38.483719999999998</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="37">
         <v>38.909931999999998</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="37">
         <v>39.172986999999999</v>
       </c>
-      <c r="W18" s="46">
+      <c r="W18" s="37">
         <v>39.025745999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="R20" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="S20" s="47">
-        <f t="shared" ref="S20:W20" si="68">S6/R6-1</f>
+    <row r="20" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="R20" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="38">
+        <f t="shared" ref="S20:V20" si="68">S6/R6-1</f>
         <v>1.6225140383715488</v>
       </c>
-      <c r="T20" s="47">
+      <c r="T20" s="38">
         <f t="shared" si="68"/>
         <v>-0.151445873155717</v>
       </c>
-      <c r="U20" s="47">
+      <c r="U20" s="38">
         <f t="shared" si="68"/>
         <v>0.19186741841790522</v>
       </c>
-      <c r="V20" s="47">
+      <c r="V20" s="38">
         <f t="shared" si="68"/>
         <v>0.25741002117148915</v>
       </c>
-      <c r="W20" s="47">
+      <c r="W20" s="38">
         <f>W6/V6-1</f>
         <v>-8.2932860951312026E-2</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="T21" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="U21" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="V21" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="W21" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="R23" s="49">
-        <f t="shared" ref="R23:T23" si="69">R8/R6</f>
+      <c r="D23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="R23" s="40">
+        <f t="shared" ref="R23:S23" si="69">R8/R6</f>
         <v>0.70484323818437067</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="40">
         <f t="shared" si="69"/>
         <v>0.60944139000100372</v>
       </c>
-      <c r="T23" s="49">
-        <f t="shared" ref="T23:V23" si="70">T8/T6</f>
+      <c r="T23" s="40">
+        <f t="shared" ref="T23:U23" si="70">T8/T6</f>
         <v>0.67758808763421796</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="40">
         <f t="shared" si="70"/>
         <v>0.69634350741002127</v>
       </c>
-      <c r="V23" s="49">
-        <f t="shared" ref="V23:W23" si="71">V8/V6</f>
+      <c r="V23" s="40">
+        <f t="shared" ref="V23" si="71">V8/V6</f>
         <v>0.64553809456994526</v>
       </c>
-      <c r="W23" s="49">
+      <c r="W23" s="40">
         <f>W8/W6</f>
         <v>0.64398756873057617</v>
       </c>
     </row>
-    <row r="24" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="R24" s="49">
-        <f t="shared" ref="R24:T24" si="72">R12/R6</f>
+    <row r="24" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="R24" s="40">
+        <f t="shared" ref="R24:S24" si="72">R12/R6</f>
         <v>8.1890500701918598E-2</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="40">
         <f t="shared" si="72"/>
         <v>0.21600553145457183</v>
       </c>
-      <c r="T24" s="49">
-        <f t="shared" ref="T24:V24" si="73">T12/T6</f>
+      <c r="T24" s="40">
+        <f t="shared" ref="T24:U24" si="73">T12/T6</f>
         <v>0.21848098936771435</v>
       </c>
-      <c r="U24" s="49">
+      <c r="U24" s="40">
         <f t="shared" si="73"/>
         <v>0.21961009174311938</v>
       </c>
-      <c r="V24" s="49">
-        <f t="shared" ref="V24:W24" si="74">V12/V6</f>
+      <c r="V24" s="40">
+        <f t="shared" ref="V24" si="74">V12/V6</f>
         <v>1.3469903185070915E-2</v>
       </c>
-      <c r="W24" s="49">
+      <c r="W24" s="40">
         <f>W12/W6</f>
         <v>-0.25417164714319862</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="R25" s="49">
-        <f t="shared" ref="R25:T25" si="75">R16/R6</f>
+    <row r="25" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="R25" s="40">
+        <f t="shared" ref="R25:S25" si="75">R16/R6</f>
         <v>0.10511230697239123</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="40">
         <f t="shared" si="75"/>
         <v>0.19415851632113662</v>
       </c>
-      <c r="T25" s="49">
-        <f t="shared" ref="T25:V25" si="76">T16/T6</f>
+      <c r="T25" s="40">
+        <f t="shared" ref="T25:U25" si="76">T16/T6</f>
         <v>0.20888696132161044</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="40">
         <f t="shared" si="76"/>
         <v>0.23771612561750188</v>
       </c>
-      <c r="V25" s="49">
-        <f t="shared" ref="V25:W25" si="77">V16/V6</f>
+      <c r="V25" s="40">
+        <f t="shared" ref="V25" si="77">V16/V6</f>
         <v>9.4815490388662882E-2</v>
       </c>
-      <c r="W25" s="49">
+      <c r="W25" s="40">
         <f>W16/W6</f>
         <v>-0.19990437485058568</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="R26" s="49">
-        <f t="shared" ref="R26:T26" si="78">R15/R14</f>
+    <row r="26" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="R26" s="40">
+        <f t="shared" ref="R26:S26" si="78">R15/R14</f>
         <v>-0.24748351266921201</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="40">
         <f t="shared" si="78"/>
         <v>0.11435547868552244</v>
       </c>
-      <c r="T26" s="49">
-        <f t="shared" ref="T26:V26" si="79">T15/T14</f>
+      <c r="T26" s="40">
+        <f t="shared" ref="T26:U26" si="79">T15/T14</f>
         <v>2.027984959625221E-2</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="40">
         <f t="shared" si="79"/>
         <v>-0.12369038311180605</v>
       </c>
-      <c r="V26" s="49">
-        <f t="shared" ref="V26:W26" si="80">V15/V14</f>
+      <c r="V26" s="40">
+        <f t="shared" ref="V26" si="80">V15/V14</f>
         <v>-4.0808270676691594</v>
       </c>
-      <c r="W26" s="49">
+      <c r="W26" s="40">
         <f>W15/W14</f>
         <v>0.21139990192010263</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="54" t="s">
-        <v>88</v>
+      <c r="B29" s="45" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R30" s="1">
         <v>377</v>
@@ -2783,25 +2916,490 @@
       <c r="S30" s="1">
         <v>466</v>
       </c>
+      <c r="T30" s="1">
+        <v>520</v>
+      </c>
       <c r="U30" s="1">
         <v>634</v>
       </c>
+      <c r="V30" s="1">
+        <f>+U30+158</f>
+        <v>792</v>
+      </c>
       <c r="W30" s="1">
         <v>915</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="54" t="s">
+    <row r="31" spans="2:23" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="R31" s="65" t="s">
         <v>91</v>
+      </c>
+      <c r="S31" s="63">
+        <f t="shared" ref="S31:V31" si="81">S30-R30</f>
+        <v>89</v>
+      </c>
+      <c r="T31" s="63">
+        <f t="shared" si="81"/>
+        <v>54</v>
+      </c>
+      <c r="U31" s="63">
+        <f t="shared" si="81"/>
+        <v>114</v>
+      </c>
+      <c r="V31" s="63">
+        <f t="shared" si="81"/>
+        <v>158</v>
+      </c>
+      <c r="W31" s="63">
+        <f>W30-V30</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="37">
+        <v>70.832999999999998</v>
+      </c>
+      <c r="W37" s="37">
+        <f>7.16+56.987</f>
+        <v>64.147000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V38" s="37">
+        <v>6.64</v>
+      </c>
+      <c r="W38" s="37">
+        <v>5.6959999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" s="37">
+        <v>19.484000000000002</v>
+      </c>
+      <c r="W39" s="37">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V40" s="37">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="W40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" ref="R41:V41" si="82">SUM(R37:R40)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="37">
+        <f t="shared" si="82"/>
+        <v>98.304999999999993</v>
+      </c>
+      <c r="W41" s="37">
+        <f>SUM(W37:W40)</f>
+        <v>87.703000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V42" s="37">
+        <v>24.704999999999998</v>
+      </c>
+      <c r="W42" s="37">
+        <v>15.558</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V43" s="37">
+        <v>7.867</v>
+      </c>
+      <c r="W43" s="37">
+        <v>9.4380000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="V44" s="36">
+        <v>38.698999999999998</v>
+      </c>
+      <c r="W44" s="36">
+        <v>28.311</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" ref="R45:V45" si="83">SUM(R41:R44)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="37">
+        <f t="shared" si="83"/>
+        <v>169.57599999999996</v>
+      </c>
+      <c r="W45" s="37">
+        <f>SUM(W41:W44)</f>
+        <v>141.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V47" s="37">
+        <v>21.797000000000001</v>
+      </c>
+      <c r="W47" s="37">
+        <v>16.521000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V48" s="37">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="W48" s="37">
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V49" s="37">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="W49" s="37">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" ref="R50:V50" si="84">SUM(R47:R49)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="37">
+        <f t="shared" si="84"/>
+        <v>25.724</v>
+      </c>
+      <c r="W50" s="37">
+        <f>SUM(W47:W49)</f>
+        <v>22.381</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V51" s="37">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W51" s="37">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V52" s="37">
+        <v>19.277999999999999</v>
+      </c>
+      <c r="W52" s="37">
+        <v>17.773</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V53" s="37">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="W53" s="37">
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V54" s="37">
+        <v>0</v>
+      </c>
+      <c r="W54" s="37">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V55" s="37">
+        <v>0</v>
+      </c>
+      <c r="W55" s="37">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" ref="R56:V56" si="85">SUM(R50:R55)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="37">
+        <f t="shared" si="85"/>
+        <v>51.206000000000003</v>
+      </c>
+      <c r="W56" s="37">
+        <f>SUM(W50:W55)</f>
+        <v>45.041999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V58" s="37">
+        <v>118.37</v>
+      </c>
+      <c r="W58" s="37">
+        <v>95.968000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V59" s="37">
+        <f>V58+V56</f>
+        <v>169.57600000000002</v>
+      </c>
+      <c r="W59" s="37">
+        <f>W58+W56</f>
+        <v>141.01</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V61" s="37">
+        <f t="shared" ref="V61:W61" si="86">V45-V56</f>
+        <v>118.36999999999996</v>
+      </c>
+      <c r="W61" s="37">
+        <f>W45-W56</f>
+        <v>95.967999999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" ref="V62" si="87">V61/V18</f>
+        <v>3.0217251495271467</v>
+      </c>
+      <c r="W62" s="1">
+        <f>W61/W18</f>
+        <v>2.45909456798084</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V64" s="37">
+        <f t="shared" ref="V64:W64" si="88">+V44</f>
+        <v>38.698999999999998</v>
+      </c>
+      <c r="W64" s="37">
+        <f>+W44</f>
+        <v>28.311</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="37">
+        <f t="shared" ref="V66" si="89">V64-V65</f>
+        <v>38.698999999999998</v>
+      </c>
+      <c r="W66" s="37">
+        <f>W64-W65</f>
+        <v>28.311</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U1" r:id="rId1" xr:uid="{AD3036FD-D9A6-45A9-821F-41310EE869E0}"/>
     <hyperlink ref="S1" r:id="rId2" xr:uid="{AE49B9F8-13B2-4228-971E-3B4557DDC5F1}"/>
+    <hyperlink ref="W1" r:id="rId3" xr:uid="{CEFED598-5470-48B8-8506-6FDB0CFC40EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/£FDEV.xlsx
+++ b/£FDEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADEB1AC-B7C4-4A3C-A13D-C8353ED6A748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4A183-7138-40E2-A371-59BE1CA740A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C3C68BB9-D7CC-4B9D-AFE9-96FC4E1C45A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="121">
   <si>
     <t>£FDEV</t>
   </si>
@@ -380,15 +380,25 @@
   </si>
   <si>
     <t>Employees Y/Y</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>Current Tax Liability</t>
+  </si>
+  <si>
+    <t>R&amp;D/Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -587,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,6 +730,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -816,8 +832,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -833,7 +849,57 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14411325" y="0"/>
-          <a:ext cx="0" cy="14458950"/>
+          <a:ext cx="0" cy="16363950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03437364-5C2C-413E-A42E-137561BE3503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="0"/>
+          <a:ext cx="0" cy="16154400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1285,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!W64</f>
+        <f>+'Financial Model'!W65</f>
         <v>28.311</v>
       </c>
       <c r="D9" s="5" t="str">
@@ -1310,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!W65</f>
+        <f>+'Financial Model'!W66</f>
         <v>0</v>
       </c>
       <c r="D10" s="5" t="str">
@@ -1806,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="60">
-        <f>C6/'Financial Model'!W62</f>
+        <f>C6/'Financial Model'!W63</f>
         <v>0.84148858158761264</v>
       </c>
       <c r="D38" s="61"/>
@@ -1897,18 +1963,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3268C-095B-4E18-9CFC-2D41B6C124BF}">
-  <dimension ref="B1:AG76"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomRight" activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="25"/>
@@ -1962,6 +2028,9 @@
       <c r="N1" s="24" t="s">
         <v>65</v>
       </c>
+      <c r="O1" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="R1" s="23" t="s">
         <v>39</v>
       </c>
@@ -2973,6 +3042,18 @@
       <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="R37" s="37">
+        <v>30.186</v>
+      </c>
+      <c r="S37" s="37">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="T37" s="37">
+        <v>52.667999999999999</v>
+      </c>
+      <c r="U37" s="37">
+        <v>71.317999999999998</v>
+      </c>
       <c r="V37" s="37">
         <v>70.832999999999998</v>
       </c>
@@ -2985,6 +3066,18 @@
       <c r="B38" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="R38" s="37">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="S38" s="37">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="T38" s="37">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="U38" s="37">
+        <v>6.0780000000000003</v>
+      </c>
       <c r="V38" s="37">
         <v>6.64</v>
       </c>
@@ -2996,6 +3089,18 @@
       <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="R39" s="37">
+        <v>0</v>
+      </c>
+      <c r="S39" s="37">
+        <v>0</v>
+      </c>
+      <c r="T39" s="37">
+        <v>22.731999999999999</v>
+      </c>
+      <c r="U39" s="37">
+        <v>21.108000000000001</v>
+      </c>
       <c r="V39" s="37">
         <v>19.484000000000002</v>
       </c>
@@ -3007,6 +3112,18 @@
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="R40" s="37">
+        <v>0</v>
+      </c>
+      <c r="S40" s="37">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="T40" s="37">
+        <v>2.137</v>
+      </c>
+      <c r="U40" s="37">
+        <v>0.38400000000000001</v>
+      </c>
       <c r="V40" s="37">
         <v>1.3480000000000001</v>
       </c>
@@ -3018,21 +3135,21 @@
       <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="37">
         <f t="shared" ref="R41:V41" si="82">SUM(R37:R40)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="S41" s="37">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
+        <v>43.407000000000004</v>
+      </c>
+      <c r="T41" s="37">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
+        <v>82.832999999999998</v>
+      </c>
+      <c r="U41" s="37">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>98.888000000000005</v>
       </c>
       <c r="V41" s="37">
         <f t="shared" si="82"/>
@@ -3047,6 +3164,18 @@
       <c r="B42" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="R42" s="37">
+        <v>6.72</v>
+      </c>
+      <c r="S42" s="37">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="T42" s="37">
+        <v>12.284000000000001</v>
+      </c>
+      <c r="U42" s="37">
+        <v>13.741</v>
+      </c>
       <c r="V42" s="37">
         <v>24.704999999999998</v>
       </c>
@@ -3057,6 +3186,18 @@
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="R43" s="37">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="S43" s="37">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="T43" s="37">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="U43" s="37">
+        <v>6.468</v>
       </c>
       <c r="V43" s="37">
         <v>7.867</v>
@@ -3075,6 +3216,18 @@
       <c r="J44" s="30"/>
       <c r="L44" s="30"/>
       <c r="N44" s="30"/>
+      <c r="R44" s="36">
+        <v>24.123999999999999</v>
+      </c>
+      <c r="S44" s="36">
+        <v>35.332000000000001</v>
+      </c>
+      <c r="T44" s="36">
+        <v>45.750999999999998</v>
+      </c>
+      <c r="U44" s="36">
+        <v>42.423000000000002</v>
+      </c>
       <c r="V44" s="36">
         <v>38.698999999999998</v>
       </c>
@@ -3086,21 +3239,21 @@
       <c r="B45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="37">
         <f t="shared" ref="R45:V45" si="83">SUM(R41:R44)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
+        <v>66.531999999999996</v>
+      </c>
+      <c r="S45" s="37">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="1">
+        <v>84.057999999999993</v>
+      </c>
+      <c r="T45" s="37">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="1">
+        <v>143.245</v>
+      </c>
+      <c r="U45" s="37">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>161.52000000000001</v>
       </c>
       <c r="V45" s="37">
         <f t="shared" si="83"/>
@@ -3112,6 +3265,9 @@
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
     </row>
@@ -3119,6 +3275,18 @@
       <c r="B47" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="R47" s="37">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="S47" s="37">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="T47" s="37">
+        <v>13.669</v>
+      </c>
+      <c r="U47" s="37">
+        <v>14.768000000000001</v>
+      </c>
       <c r="V47" s="37">
         <v>21.797000000000001</v>
       </c>
@@ -3130,6 +3298,18 @@
       <c r="B48" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="R48" s="37">
+        <v>0</v>
+      </c>
+      <c r="S48" s="37">
+        <v>0</v>
+      </c>
+      <c r="T48" s="37">
+        <v>1.337</v>
+      </c>
+      <c r="U48" s="37">
+        <v>1.419</v>
+      </c>
       <c r="V48" s="37">
         <v>1.4610000000000001</v>
       </c>
@@ -3141,6 +3321,18 @@
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="R49" s="37">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="S49" s="37">
+        <v>1.036</v>
+      </c>
+      <c r="T49" s="37">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="U49" s="37">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="V49" s="37">
         <v>2.4660000000000002</v>
       </c>
@@ -3150,246 +3342,717 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R50" s="1">
-        <f t="shared" ref="R50:V50" si="84">SUM(R47:R49)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="1">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
-        <f t="shared" si="84"/>
+        <v>119</v>
+      </c>
+      <c r="R50" s="37">
+        <v>0</v>
+      </c>
+      <c r="S50" s="37">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="T50" s="37">
+        <v>0</v>
+      </c>
+      <c r="U50" s="37">
         <v>0</v>
       </c>
       <c r="V50" s="37">
-        <f t="shared" si="84"/>
-        <v>25.724</v>
+        <v>0</v>
       </c>
       <c r="W50" s="37">
-        <f>SUM(W47:W49)</f>
-        <v>22.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V51" s="37">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="W51" s="37">
-        <v>7.0999999999999994E-2</v>
+        <v>105</v>
+      </c>
+      <c r="R51" s="37">
+        <f t="shared" ref="R51" si="84">SUM(R47:R50)</f>
+        <v>10.542999999999999</v>
+      </c>
+      <c r="S51" s="37">
+        <f>SUM(S47:S50)</f>
+        <v>11.027999999999999</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" ref="T51:W51" si="85">SUM(T47:T50)</f>
+        <v>16.445</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="85"/>
+        <v>18.367000000000001</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="85"/>
+        <v>25.724</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="85"/>
+        <v>22.381</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="R52" s="37">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S52" s="37">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T52" s="37">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U52" s="37">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="V52" s="37">
-        <v>19.277999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="W52" s="37">
-        <v>17.773</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="R53" s="37">
+        <v>0</v>
+      </c>
+      <c r="S53" s="37">
+        <v>0</v>
+      </c>
+      <c r="T53" s="37">
+        <v>22.198</v>
+      </c>
+      <c r="U53" s="37">
+        <v>20.739000000000001</v>
       </c>
       <c r="V53" s="37">
-        <v>6.1479999999999997</v>
+        <v>19.277999999999999</v>
       </c>
       <c r="W53" s="37">
-        <v>4.2350000000000003</v>
+        <v>17.773</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="R54" s="37">
+        <v>0</v>
+      </c>
+      <c r="S54" s="37">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="T54" s="37">
+        <v>8.2370000000000001</v>
+      </c>
+      <c r="U54" s="37">
+        <v>9.2189999999999994</v>
       </c>
       <c r="V54" s="37">
-        <v>0</v>
+        <v>6.1479999999999997</v>
       </c>
       <c r="W54" s="37">
-        <v>0.16300000000000001</v>
+        <v>4.2350000000000003</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="R55" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="S55" s="37">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="T55" s="37">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="U55" s="37">
+        <v>0</v>
       </c>
       <c r="V55" s="37">
         <v>0</v>
       </c>
       <c r="W55" s="37">
-        <v>0.41899999999999998</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R56" s="37">
+        <v>0</v>
+      </c>
+      <c r="S56" s="37">
+        <v>0</v>
+      </c>
+      <c r="T56" s="37">
+        <v>0</v>
+      </c>
+      <c r="U56" s="37">
+        <v>0</v>
+      </c>
+      <c r="V56" s="37">
+        <v>0</v>
+      </c>
+      <c r="W56" s="37">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R56" s="1">
-        <f t="shared" ref="R56:V56" si="85">SUM(R50:R55)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="37">
-        <f t="shared" si="85"/>
+      <c r="R57" s="37">
+        <f t="shared" ref="R57:V57" si="86">SUM(R51:R56)</f>
+        <v>11.243999999999998</v>
+      </c>
+      <c r="S57" s="37">
+        <f t="shared" si="86"/>
+        <v>12.444999999999999</v>
+      </c>
+      <c r="T57" s="37">
+        <f t="shared" si="86"/>
+        <v>47.141000000000005</v>
+      </c>
+      <c r="U57" s="37">
+        <f t="shared" si="86"/>
+        <v>48.366000000000007</v>
+      </c>
+      <c r="V57" s="37">
+        <f t="shared" si="86"/>
         <v>51.206000000000003</v>
       </c>
-      <c r="W56" s="37">
-        <f>SUM(W50:W55)</f>
+      <c r="W57" s="37">
+        <f>SUM(W51:W56)</f>
         <v>45.041999999999994</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-    </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V58" s="37">
-        <v>118.37</v>
-      </c>
-      <c r="W58" s="37">
-        <v>95.968000000000004</v>
-      </c>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R59" s="66">
+        <v>55.287999999999997</v>
+      </c>
+      <c r="S59" s="37">
+        <v>71.613</v>
+      </c>
+      <c r="T59" s="66">
+        <v>96.733999999999995</v>
+      </c>
+      <c r="U59" s="37">
+        <v>113.154</v>
+      </c>
+      <c r="V59" s="37">
+        <v>118.37</v>
+      </c>
+      <c r="W59" s="37">
+        <v>95.968000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V59" s="37">
-        <f>V58+V56</f>
+      <c r="R60" s="37">
+        <f t="shared" ref="R60" si="87">R59+R57</f>
+        <v>66.531999999999996</v>
+      </c>
+      <c r="S60" s="37">
+        <f t="shared" ref="S60" si="88">S59+S57</f>
+        <v>84.057999999999993</v>
+      </c>
+      <c r="T60" s="37">
+        <f t="shared" ref="T60" si="89">T59+T57</f>
+        <v>143.875</v>
+      </c>
+      <c r="U60" s="37">
+        <f t="shared" ref="U60" si="90">U59+U57</f>
+        <v>161.52000000000001</v>
+      </c>
+      <c r="V60" s="37">
+        <f>V59+V57</f>
         <v>169.57600000000002</v>
       </c>
-      <c r="W59" s="37">
-        <f>W58+W56</f>
+      <c r="W60" s="37">
+        <f>W59+W57</f>
         <v>141.01</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V61" s="37">
-        <f t="shared" ref="V61:W61" si="86">V45-V56</f>
-        <v>118.36999999999996</v>
-      </c>
-      <c r="W61" s="37">
-        <f>W45-W56</f>
-        <v>95.967999999999989</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R62" s="37">
+        <f t="shared" ref="R62:S62" si="91">R45-R57</f>
+        <v>55.287999999999997</v>
+      </c>
+      <c r="S62" s="37">
+        <f t="shared" ref="S62:T62" si="92">S45-S57</f>
+        <v>71.613</v>
+      </c>
+      <c r="T62" s="37">
+        <f t="shared" ref="T62:U62" si="93">T45-T57</f>
+        <v>96.103999999999999</v>
+      </c>
+      <c r="U62" s="37">
+        <f t="shared" ref="U62:V62" si="94">U45-U57</f>
+        <v>113.154</v>
+      </c>
+      <c r="V62" s="37">
+        <f t="shared" ref="V62:W62" si="95">V45-V57</f>
+        <v>118.36999999999996</v>
+      </c>
+      <c r="W62" s="37">
+        <f>W45-W57</f>
+        <v>95.967999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="V62" s="1">
-        <f t="shared" ref="V62" si="87">V61/V18</f>
+      <c r="R63" s="1">
+        <f t="shared" ref="R63" si="96">R62/R18</f>
+        <v>1.4735749456438001</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" ref="S63" si="97">S62/S18</f>
+        <v>1.8679807421105377</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" ref="T63" si="98">T62/T18</f>
+        <v>2.4972637780339322</v>
+      </c>
+      <c r="U63" s="1">
+        <f t="shared" ref="U63" si="99">U62/U18</f>
+        <v>2.9081006875056992</v>
+      </c>
+      <c r="V63" s="1">
+        <f t="shared" ref="V63" si="100">V62/V18</f>
         <v>3.0217251495271467</v>
       </c>
-      <c r="W62" s="1">
-        <f>W61/W18</f>
+      <c r="W63" s="1">
+        <f>W62/W18</f>
         <v>2.45909456798084</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V64" s="37">
-        <f t="shared" ref="V64:W64" si="88">+V44</f>
+      <c r="R65" s="37">
+        <f t="shared" ref="R65:S65" si="101">+R44</f>
+        <v>24.123999999999999</v>
+      </c>
+      <c r="S65" s="37">
+        <f t="shared" ref="S65:T65" si="102">+S44</f>
+        <v>35.332000000000001</v>
+      </c>
+      <c r="T65" s="37">
+        <f t="shared" ref="T65:U65" si="103">+T44</f>
+        <v>45.750999999999998</v>
+      </c>
+      <c r="U65" s="37">
+        <f t="shared" ref="U65:V65" si="104">+U44</f>
+        <v>42.423000000000002</v>
+      </c>
+      <c r="V65" s="37">
+        <f t="shared" ref="V65:W65" si="105">+V44</f>
         <v>38.698999999999998</v>
       </c>
-      <c r="W64" s="37">
+      <c r="W65" s="37">
         <f>+W44</f>
         <v>28.311</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V66" s="37">
-        <f t="shared" ref="V66" si="89">V64-V65</f>
+      <c r="R67" s="37">
+        <f t="shared" ref="R67" si="106">R65-R66</f>
+        <v>24.123999999999999</v>
+      </c>
+      <c r="S67" s="37">
+        <f t="shared" ref="S67" si="107">S65-S66</f>
+        <v>35.332000000000001</v>
+      </c>
+      <c r="T67" s="37">
+        <f t="shared" ref="T67" si="108">T65-T66</f>
+        <v>45.750999999999998</v>
+      </c>
+      <c r="U67" s="37">
+        <f t="shared" ref="U67" si="109">U65-U66</f>
+        <v>42.423000000000002</v>
+      </c>
+      <c r="V67" s="37">
+        <f t="shared" ref="V67" si="110">V65-V66</f>
         <v>38.698999999999998</v>
       </c>
-      <c r="W66" s="37">
-        <f>W64-W65</f>
+      <c r="W67" s="37">
+        <f>W65-W66</f>
         <v>28.311</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="67" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="R69" s="67">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S69" s="67">
+        <v>11.06</v>
+      </c>
+      <c r="T69" s="67">
+        <v>20.65</v>
+      </c>
+      <c r="U69" s="67">
+        <v>25.7</v>
+      </c>
+      <c r="V69" s="67">
+        <v>12.48</v>
+      </c>
+      <c r="W69" s="67">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="R70" s="37">
+        <f t="shared" ref="R70:V70" si="111">R69*R18</f>
+        <v>652.84171859999992</v>
+      </c>
+      <c r="S70" s="37">
+        <f t="shared" si="111"/>
+        <v>424.00853614000005</v>
+      </c>
+      <c r="T70" s="37">
+        <f t="shared" si="111"/>
+        <v>794.68881799999986</v>
+      </c>
+      <c r="U70" s="37">
+        <f t="shared" si="111"/>
+        <v>999.98525239999992</v>
+      </c>
+      <c r="V70" s="37">
+        <f t="shared" si="111"/>
+        <v>488.87887776000002</v>
+      </c>
+      <c r="W70" s="37">
+        <f>W69*W18</f>
+        <v>209.56825602000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="R71" s="37">
+        <f t="shared" ref="R71:V71" si="112">R70-R67</f>
+        <v>628.7177185999999</v>
+      </c>
+      <c r="S71" s="37">
+        <f t="shared" si="112"/>
+        <v>388.67653614000005</v>
+      </c>
+      <c r="T71" s="37">
+        <f t="shared" si="112"/>
+        <v>748.93781799999988</v>
+      </c>
+      <c r="U71" s="37">
+        <f t="shared" si="112"/>
+        <v>957.56225239999992</v>
+      </c>
+      <c r="V71" s="37">
+        <f t="shared" si="112"/>
+        <v>450.17987776000001</v>
+      </c>
+      <c r="W71" s="37">
+        <f>W70-W67</f>
+        <v>181.25725602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="71">
+        <f>AVERAGE(R73:W73)</f>
+        <v>6.8581842376093576</v>
+      </c>
+      <c r="B73" s="69" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="R73" s="69">
+        <f t="shared" ref="R73:W73" si="113">R69/R63</f>
+        <v>11.808018351179278</v>
+      </c>
+      <c r="S73" s="69">
+        <f t="shared" si="113"/>
+        <v>5.9208319179478597</v>
+      </c>
+      <c r="T73" s="69">
+        <f t="shared" si="113"/>
+        <v>8.269050382918504</v>
+      </c>
+      <c r="U73" s="69">
+        <f t="shared" si="113"/>
+        <v>8.8373831450942966</v>
+      </c>
+      <c r="V73" s="69">
+        <f t="shared" si="113"/>
+        <v>4.130091051448848</v>
+      </c>
+      <c r="W73" s="69">
+        <f>W69/W63</f>
+        <v>2.1837305770673558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="71">
+        <f t="shared" ref="A74:A77" si="114">AVERAGE(R74:W74)</f>
+        <v>8.5973441978402558</v>
+      </c>
+      <c r="B74" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="L74" s="70"/>
+      <c r="N74" s="70"/>
+      <c r="R74" s="69">
+        <f t="shared" ref="R74:W74" si="115">R70/R6</f>
+        <v>19.093405434019651</v>
+      </c>
+      <c r="S74" s="69">
+        <f t="shared" si="115"/>
+        <v>4.7285966849189807</v>
+      </c>
+      <c r="T74" s="69">
+        <f t="shared" si="115"/>
+        <v>10.444201106598848</v>
+      </c>
+      <c r="U74" s="69">
+        <f t="shared" si="115"/>
+        <v>11.026654600388143</v>
+      </c>
+      <c r="V74" s="69">
+        <f t="shared" si="115"/>
+        <v>4.2872077816753187</v>
+      </c>
+      <c r="W74" s="69">
+        <f>W70/W6</f>
+        <v>2.0039995794405927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="71">
+        <f t="shared" si="114"/>
+        <v>8.1342209537678034</v>
+      </c>
+      <c r="B75" s="69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="R75" s="69">
+        <f t="shared" ref="R75:W75" si="116">R71/R6</f>
+        <v>18.387860277257836</v>
+      </c>
+      <c r="S75" s="69">
+        <f t="shared" si="116"/>
+        <v>4.3345697636864475</v>
+      </c>
+      <c r="T75" s="69">
+        <f t="shared" si="116"/>
+        <v>9.8429183981915873</v>
+      </c>
+      <c r="U75" s="69">
+        <f t="shared" si="116"/>
+        <v>10.558863933486238</v>
+      </c>
+      <c r="V75" s="69">
+        <f t="shared" si="116"/>
+        <v>3.9478381310509327</v>
+      </c>
+      <c r="W75" s="69">
+        <f>W71/W6</f>
+        <v>1.7332752189337794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="71">
+        <f t="shared" si="114"/>
+        <v>56.263102318162872</v>
+      </c>
+      <c r="B76" s="69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="L76" s="70"/>
+      <c r="N76" s="70"/>
+      <c r="R76" s="69">
+        <f t="shared" ref="R76:W76" si="117">R69/R17</f>
+        <v>181.64766794657754</v>
+      </c>
+      <c r="S76" s="69">
+        <f t="shared" si="117"/>
+        <v>24.354309944859278</v>
+      </c>
+      <c r="T76" s="69">
+        <f t="shared" si="117"/>
+        <v>49.999296464074426</v>
+      </c>
+      <c r="U76" s="69">
+        <f t="shared" si="117"/>
+        <v>46.385808164022613</v>
+      </c>
+      <c r="V76" s="69">
+        <f t="shared" si="117"/>
+        <v>45.21632239733627</v>
+      </c>
+      <c r="W76" s="69">
+        <f>W69/W17</f>
+        <v>-10.024791007892849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="71">
+        <f t="shared" si="114"/>
+        <v>53.627591834477137</v>
+      </c>
+      <c r="B77" s="69" t="s">
         <v>115</v>
+      </c>
+      <c r="D77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="R77" s="69">
+        <f t="shared" ref="R77:W77" si="118">R71/R16</f>
+        <v>174.93536967167495</v>
+      </c>
+      <c r="S77" s="69">
+        <f t="shared" si="118"/>
+        <v>22.324901558874213</v>
+      </c>
+      <c r="T77" s="69">
+        <f t="shared" si="118"/>
+        <v>47.120788851138727</v>
+      </c>
+      <c r="U77" s="69">
+        <f t="shared" si="118"/>
+        <v>44.417954003154257</v>
+      </c>
+      <c r="V77" s="69">
+        <f t="shared" si="118"/>
+        <v>41.637058616352178</v>
+      </c>
+      <c r="W77" s="69">
+        <f>W71/W16</f>
+        <v>-8.6705216943314998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="R79" s="40">
+        <f t="shared" ref="R79:W79" si="119">R9/R6</f>
+        <v>0.24859616284510996</v>
+      </c>
+      <c r="S79" s="40">
+        <f t="shared" si="119"/>
+        <v>0.16606631054210486</v>
+      </c>
+      <c r="T79" s="40">
+        <f t="shared" si="119"/>
+        <v>0.21046406182233959</v>
+      </c>
+      <c r="U79" s="40">
+        <f t="shared" si="119"/>
+        <v>0.24286564925899787</v>
+      </c>
+      <c r="V79" s="40">
+        <f t="shared" si="119"/>
+        <v>0.40496527290585099</v>
+      </c>
+      <c r="W79" s="40">
+        <f>W9/W6</f>
+        <v>0.64888357638058802</v>
       </c>
     </row>
   </sheetData>
